--- a/Trabajo 3/target.xlsx
+++ b/Trabajo 3/target.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -58,6 +58,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -105,7 +108,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -140,7 +143,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,15 +352,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -386,10 +389,40 @@
         <v>0</v>
       </c>
       <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -415,13 +448,43 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -444,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -452,8 +515,38 @@
       <c r="J3">
         <v>0</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -473,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -484,8 +577,38 @@
       <c r="J4">
         <v>0</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -502,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -516,8 +639,38 @@
       <c r="J5">
         <v>0</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -531,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -543,13 +696,43 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -560,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -569,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -580,8 +763,38 @@
       <c r="J7">
         <v>0</v>
       </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -589,16 +802,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -612,19 +825,49 @@
       <c r="J8">
         <v>0</v>
       </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -644,13 +887,43 @@
       <c r="J9">
         <v>0</v>
       </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -674,11 +947,42 @@
         <v>0</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Trabajo 3/target.xlsx
+++ b/Trabajo 3/target.xlsx
@@ -17,8 +17,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -46,8 +54,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,17 +361,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -388,46 +400,16 @@
       <c r="I1">
         <v>0</v>
       </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1">
-        <v>0</v>
-      </c>
-      <c r="S1">
-        <v>1</v>
-      </c>
-      <c r="T1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -450,41 +432,11 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -492,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -512,41 +464,11 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -557,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -574,41 +496,11 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -622,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -636,41 +528,11 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -687,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -696,43 +558,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -755,46 +587,16 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -808,55 +610,25 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -864,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -882,53 +654,23 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10">
@@ -946,38 +688,8 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
+      <c r="J10" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
